--- a/results/porosity.xlsx
+++ b/results/porosity.xlsx
@@ -480,40 +480,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.020770887899684</v>
+        <v>1.882839403522188</v>
       </c>
       <c r="C2" t="n">
-        <v>1.887271318580141</v>
+        <v>0.9190827061374862</v>
       </c>
       <c r="D2" t="n">
-        <v>1.596633675316333</v>
+        <v>1.334991439822856</v>
       </c>
       <c r="E2" t="n">
-        <v>1.528685230429283</v>
+        <v>1.365340035014402</v>
       </c>
       <c r="F2" t="n">
-        <v>1.301934789469885</v>
+        <v>0.9217052787547499</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9009863153779755</v>
+        <v>1.48041420539845</v>
       </c>
       <c r="H2" t="n">
-        <v>1.301922201817034</v>
+        <v>1.473018325543459</v>
       </c>
       <c r="I2" t="n">
-        <v>1.118013174055064</v>
+        <v>1.284781297187946</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9162729106086017</v>
+        <v>1.07775467647256</v>
       </c>
       <c r="K2" t="n">
-        <v>1.434407130165547</v>
+        <v>1.142917624127828</v>
       </c>
       <c r="L2" t="n">
-        <v>1.300689763371955</v>
+        <v>1.288284499198193</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3198594365341807</v>
+        <v>0.2922730714527865</v>
       </c>
     </row>
     <row r="3">
@@ -521,40 +521,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.007903786206603</v>
+        <v>1.796208287626305</v>
       </c>
       <c r="C3" t="n">
-        <v>1.889360692077863</v>
+        <v>0.9454597641975123</v>
       </c>
       <c r="D3" t="n">
-        <v>1.566421009088019</v>
+        <v>1.195543829648995</v>
       </c>
       <c r="E3" t="n">
-        <v>1.523262870498927</v>
+        <v>1.404721730351537</v>
       </c>
       <c r="F3" t="n">
-        <v>1.290264885584281</v>
+        <v>0.9241843130694558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9010729015527079</v>
+        <v>1.450211267332762</v>
       </c>
       <c r="H3" t="n">
-        <v>1.305503787023672</v>
+        <v>1.443781836215697</v>
       </c>
       <c r="I3" t="n">
-        <v>1.109014063520102</v>
+        <v>1.333106151385306</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9162603819143113</v>
+        <v>1.06667889800985</v>
       </c>
       <c r="K3" t="n">
-        <v>1.457255931037691</v>
+        <v>1.145365789950748</v>
       </c>
       <c r="L3" t="n">
-        <v>1.296632030850418</v>
+        <v>1.270526186778817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3199146238559348</v>
+        <v>0.2685418824771844</v>
       </c>
     </row>
     <row r="4">
@@ -562,40 +562,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9946181819052992</v>
+        <v>1.9563718137563</v>
       </c>
       <c r="C4" t="n">
-        <v>1.843991843271756</v>
+        <v>0.9310513972724576</v>
       </c>
       <c r="D4" t="n">
-        <v>1.63178465168618</v>
+        <v>1.299361041911254</v>
       </c>
       <c r="E4" t="n">
-        <v>1.543153720347292</v>
+        <v>1.398696519131204</v>
       </c>
       <c r="F4" t="n">
-        <v>1.332277636201697</v>
+        <v>0.9261851529174648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9011335201660684</v>
+        <v>1.450656994056696</v>
       </c>
       <c r="H4" t="n">
-        <v>1.278255262468081</v>
+        <v>1.523917959074275</v>
       </c>
       <c r="I4" t="n">
-        <v>1.102291578873763</v>
+        <v>1.262516539824702</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9222810643801493</v>
+        <v>1.074218459878894</v>
       </c>
       <c r="K4" t="n">
-        <v>1.402487141917169</v>
+        <v>1.122247813766683</v>
       </c>
       <c r="L4" t="n">
-        <v>1.295227460121745</v>
+        <v>1.294522369158993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3181605416428014</v>
+        <v>0.3114376826587223</v>
       </c>
     </row>
     <row r="5">
@@ -603,40 +603,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.968923687110218</v>
+        <v>1.949353740362548</v>
       </c>
       <c r="C5" t="n">
-        <v>1.781882890136734</v>
+        <v>0.91752926596259</v>
       </c>
       <c r="D5" t="n">
-        <v>1.724378954395838</v>
+        <v>1.343695787030265</v>
       </c>
       <c r="E5" t="n">
-        <v>1.499282242124222</v>
+        <v>1.38083419754523</v>
       </c>
       <c r="F5" t="n">
-        <v>1.387933810629353</v>
+        <v>0.9227373410016581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.901306419832187</v>
+        <v>1.463517566089106</v>
       </c>
       <c r="H5" t="n">
-        <v>1.234761207475601</v>
+        <v>1.523371531127526</v>
       </c>
       <c r="I5" t="n">
-        <v>1.127552728242797</v>
+        <v>1.26386689723497</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9233771887888927</v>
+        <v>1.078342802861836</v>
       </c>
       <c r="K5" t="n">
-        <v>1.296404034224456</v>
+        <v>1.127709852808839</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28458031629603</v>
+        <v>1.297095898202457</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3165432474696817</v>
+        <v>0.3118733097362531</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9599442687347522</v>
+        <v>1.751197022494889</v>
       </c>
       <c r="C6" t="n">
-        <v>1.747784677838654</v>
+        <v>0.9563624771731493</v>
       </c>
       <c r="D6" t="n">
-        <v>1.63863999945056</v>
+        <v>1.141963143977859</v>
       </c>
       <c r="E6" t="n">
-        <v>1.549047925644268</v>
+        <v>1.406849839624077</v>
       </c>
       <c r="F6" t="n">
-        <v>1.340781229507651</v>
+        <v>0.925246871632231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9010862022356613</v>
+        <v>1.441349264932259</v>
       </c>
       <c r="H6" t="n">
-        <v>1.253630246496916</v>
+        <v>1.367412929594221</v>
       </c>
       <c r="I6" t="n">
-        <v>1.084491163777224</v>
+        <v>1.312373019529253</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9231593737537428</v>
+        <v>1.060949938820746</v>
       </c>
       <c r="K6" t="n">
-        <v>1.308279172862179</v>
+        <v>1.149164991207392</v>
       </c>
       <c r="L6" t="n">
-        <v>1.270684426030161</v>
+        <v>1.251286949898608</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3047264436884508</v>
+        <v>0.2537149914601052</v>
       </c>
     </row>
     <row r="7">
@@ -685,40 +685,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9974241230182342</v>
+        <v>1.811174859470742</v>
       </c>
       <c r="C7" t="n">
-        <v>1.886549312037641</v>
+        <v>0.9190827061374862</v>
       </c>
       <c r="D7" t="n">
-        <v>1.635238974838108</v>
+        <v>1.328731072380511</v>
       </c>
       <c r="E7" t="n">
-        <v>1.505630369385162</v>
+        <v>1.336180339212821</v>
       </c>
       <c r="F7" t="n">
-        <v>1.337037419819412</v>
+        <v>0.9217655086100963</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9012399256296953</v>
+        <v>1.485536878961379</v>
       </c>
       <c r="H7" t="n">
-        <v>1.277876836941947</v>
+        <v>1.408147753394009</v>
       </c>
       <c r="I7" t="n">
-        <v>1.122613931693132</v>
+        <v>1.272635538753549</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9208365612021089</v>
+        <v>1.073109331422459</v>
       </c>
       <c r="K7" t="n">
-        <v>1.445252911280364</v>
+        <v>1.148171716324043</v>
       </c>
       <c r="L7" t="n">
-        <v>1.30297003658458</v>
+        <v>1.270453570466709</v>
       </c>
       <c r="M7" t="n">
-        <v>0.324443627218141</v>
+        <v>0.2716745429633782</v>
       </c>
     </row>
     <row r="8">
@@ -726,40 +726,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9981648636436081</v>
+        <v>1.936647816636604</v>
       </c>
       <c r="C8" t="n">
-        <v>1.905710726564774</v>
+        <v>0.9278225537686575</v>
       </c>
       <c r="D8" t="n">
-        <v>1.696395806165615</v>
+        <v>1.306736168352644</v>
       </c>
       <c r="E8" t="n">
-        <v>1.505815911977783</v>
+        <v>1.372461639641914</v>
       </c>
       <c r="F8" t="n">
-        <v>1.368540512080364</v>
+        <v>0.9227421645489599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9015283251175318</v>
+        <v>1.44989371652124</v>
       </c>
       <c r="H8" t="n">
-        <v>1.263224720584561</v>
+        <v>1.443004939252565</v>
       </c>
       <c r="I8" t="n">
-        <v>1.143124951908875</v>
+        <v>1.184561353109649</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9232195704448984</v>
+        <v>1.070966025580727</v>
       </c>
       <c r="K8" t="n">
-        <v>1.436715298884501</v>
+        <v>1.117331731002785</v>
       </c>
       <c r="L8" t="n">
-        <v>1.314244068737251</v>
+        <v>1.273216810841574</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3342562337250151</v>
+        <v>0.303012929560061</v>
       </c>
     </row>
     <row r="9">
@@ -767,40 +767,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9740263073924612</v>
+        <v>1.809439355258344</v>
       </c>
       <c r="C9" t="n">
-        <v>1.786195708900725</v>
+        <v>0.9179862758812057</v>
       </c>
       <c r="D9" t="n">
-        <v>1.703955767696891</v>
+        <v>1.283604160030974</v>
       </c>
       <c r="E9" t="n">
-        <v>1.514262610272018</v>
+        <v>1.357250625602051</v>
       </c>
       <c r="F9" t="n">
-        <v>1.376186612069797</v>
+        <v>0.9208326220332276</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9012586541852046</v>
+        <v>1.469980898378957</v>
       </c>
       <c r="H9" t="n">
-        <v>1.243639305563358</v>
+        <v>1.406162382798539</v>
       </c>
       <c r="I9" t="n">
-        <v>1.11579471078723</v>
+        <v>1.273255488026322</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9233771887888927</v>
+        <v>1.070519443957653</v>
       </c>
       <c r="K9" t="n">
-        <v>1.306794301494152</v>
+        <v>1.145722371329896</v>
       </c>
       <c r="L9" t="n">
-        <v>1.284549116715073</v>
+        <v>1.265475362329717</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3150210976582982</v>
+        <v>0.2704317397582951</v>
       </c>
     </row>
     <row r="10">
@@ -808,40 +808,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.022579471248895</v>
+        <v>1.827886899524446</v>
       </c>
       <c r="C10" t="n">
-        <v>1.888233050633158</v>
+        <v>0.9190827061374862</v>
       </c>
       <c r="D10" t="n">
-        <v>1.632285209872185</v>
+        <v>1.339314900607175</v>
       </c>
       <c r="E10" t="n">
-        <v>1.538995019262713</v>
+        <v>1.354889423657147</v>
       </c>
       <c r="F10" t="n">
-        <v>1.329528870153648</v>
+        <v>0.9232489465480995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9010612811887535</v>
+        <v>1.509226546835738</v>
       </c>
       <c r="H10" t="n">
-        <v>1.290377172164405</v>
+        <v>1.443700060691081</v>
       </c>
       <c r="I10" t="n">
-        <v>1.118062949820498</v>
+        <v>1.333388887166342</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9223590812964781</v>
+        <v>1.080808641513526</v>
       </c>
       <c r="K10" t="n">
-        <v>1.430564977596947</v>
+        <v>1.162340962063834</v>
       </c>
       <c r="L10" t="n">
-        <v>1.307404708323768</v>
+        <v>1.289388797474488</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3236667826888452</v>
+        <v>0.2792194655084207</v>
       </c>
     </row>
     <row r="11">
@@ -849,40 +849,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9770278287930908</v>
+        <v>1.838642002371881</v>
       </c>
       <c r="C11" t="n">
-        <v>1.78263838514209</v>
+        <v>0.9190827061374862</v>
       </c>
       <c r="D11" t="n">
-        <v>1.658626185292655</v>
+        <v>1.313690183269471</v>
       </c>
       <c r="E11" t="n">
-        <v>1.549075282416742</v>
+        <v>1.370665643945555</v>
       </c>
       <c r="F11" t="n">
-        <v>1.354400480307731</v>
+        <v>0.9248970262687198</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9011006083916403</v>
+        <v>1.487077937838388</v>
       </c>
       <c r="H11" t="n">
-        <v>1.255290431147166</v>
+        <v>1.497109088510797</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1005929532415</v>
+        <v>1.358887374224158</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9233771887888927</v>
+        <v>1.07734534192063</v>
       </c>
       <c r="K11" t="n">
-        <v>1.319201718023895</v>
+        <v>1.154834534906279</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28213310615454</v>
+        <v>1.294223183939337</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3110493910307086</v>
+        <v>0.2845559406361151</v>
       </c>
     </row>
     <row r="12">
@@ -890,40 +890,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9900431228301674</v>
+        <v>1.805316383061954</v>
       </c>
       <c r="C12" t="n">
-        <v>1.921132045793034</v>
+        <v>0.9224576415865333</v>
       </c>
       <c r="D12" t="n">
-        <v>1.66193847727025</v>
+        <v>1.245231982660844</v>
       </c>
       <c r="E12" t="n">
-        <v>1.524172719017942</v>
+        <v>1.383562210179679</v>
       </c>
       <c r="F12" t="n">
-        <v>1.361295801976717</v>
+        <v>0.9209620323905179</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9005000620129218</v>
+        <v>1.473031296426959</v>
       </c>
       <c r="H12" t="n">
-        <v>1.262711692662827</v>
+        <v>1.400673812403767</v>
       </c>
       <c r="I12" t="n">
-        <v>1.150436521021112</v>
+        <v>1.291080164570863</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9215160291425822</v>
+        <v>1.071749923873021</v>
       </c>
       <c r="K12" t="n">
-        <v>1.471169915686044</v>
+        <v>1.149521690503662</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31649163874136</v>
+        <v>1.26635871376578</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3366629861093728</v>
+        <v>0.2697970236981098</v>
       </c>
     </row>
     <row r="13">
@@ -931,40 +931,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.014886882433824</v>
+        <v>1.767919085504026</v>
       </c>
       <c r="C13" t="n">
-        <v>1.878179908417358</v>
+        <v>0.9188808651875565</v>
       </c>
       <c r="D13" t="n">
-        <v>1.624007074104899</v>
+        <v>1.256136574940624</v>
       </c>
       <c r="E13" t="n">
-        <v>1.514122053061719</v>
+        <v>1.364753043577432</v>
       </c>
       <c r="F13" t="n">
-        <v>1.322673640306391</v>
+        <v>0.9208631441434653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9010362938134642</v>
+        <v>1.488478380546536</v>
       </c>
       <c r="H13" t="n">
-        <v>1.284873596815765</v>
+        <v>1.36730073145194</v>
       </c>
       <c r="I13" t="n">
-        <v>1.126472062031862</v>
+        <v>1.303310410623699</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9191903865800027</v>
+        <v>1.071715182540736</v>
       </c>
       <c r="K13" t="n">
-        <v>1.423684985153916</v>
+        <v>1.159409807706196</v>
       </c>
       <c r="L13" t="n">
-        <v>1.30091268827192</v>
+        <v>1.261876722622221</v>
       </c>
       <c r="M13" t="n">
-        <v>0.319155626851296</v>
+        <v>0.2606555714082955</v>
       </c>
     </row>
     <row r="14">
@@ -972,40 +972,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9957080898707285</v>
+        <v>1.768955164302927</v>
       </c>
       <c r="C14" t="n">
-        <v>1.811278331745941</v>
+        <v>0.9175863525896335</v>
       </c>
       <c r="D14" t="n">
-        <v>1.672616521277978</v>
+        <v>1.282368034833355</v>
       </c>
       <c r="E14" t="n">
-        <v>1.539727992097627</v>
+        <v>1.341525257072822</v>
       </c>
       <c r="F14" t="n">
-        <v>1.353456141030316</v>
+        <v>0.9210517452114579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9014442188872869</v>
+        <v>1.472970215357383</v>
       </c>
       <c r="H14" t="n">
-        <v>1.264518448296636</v>
+        <v>1.374864230496898</v>
       </c>
       <c r="I14" t="n">
-        <v>1.106835470979392</v>
+        <v>1.26815291933282</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9233771887888927</v>
+        <v>1.067733091826732</v>
       </c>
       <c r="K14" t="n">
-        <v>1.335124067106651</v>
+        <v>1.148047873865892</v>
       </c>
       <c r="L14" t="n">
-        <v>1.290408647008145</v>
+        <v>1.256325488488992</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3149507771339075</v>
+        <v>0.2595501401993364</v>
       </c>
     </row>
     <row r="15">
@@ -1013,40 +1013,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.015538271359447</v>
+        <v>1.920027987772877</v>
       </c>
       <c r="C15" t="n">
-        <v>1.9266989131573</v>
+        <v>0.9544812937254344</v>
       </c>
       <c r="D15" t="n">
-        <v>1.692270121875402</v>
+        <v>1.250560008893013</v>
       </c>
       <c r="E15" t="n">
-        <v>1.511703160164518</v>
+        <v>1.397948688738826</v>
       </c>
       <c r="F15" t="n">
-        <v>1.358194227897448</v>
+        <v>0.9264482665522951</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9013774280495332</v>
+        <v>1.430172726288173</v>
       </c>
       <c r="H15" t="n">
-        <v>1.270394936545921</v>
+        <v>1.486391660184076</v>
       </c>
       <c r="I15" t="n">
-        <v>1.165006036434023</v>
+        <v>1.247793113087343</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9197984557026607</v>
+        <v>1.06978392116496</v>
       </c>
       <c r="K15" t="n">
-        <v>1.455273685245973</v>
+        <v>1.120674032888116</v>
       </c>
       <c r="L15" t="n">
-        <v>1.321625523643223</v>
+        <v>1.280428169929511</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3362764952388912</v>
+        <v>0.2964860998659929</v>
       </c>
     </row>
     <row r="16">
@@ -1054,40 +1054,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9998878539013553</v>
+        <v>1.839130886762736</v>
       </c>
       <c r="C16" t="n">
-        <v>1.905211701301365</v>
+        <v>0.9383013915371671</v>
       </c>
       <c r="D16" t="n">
-        <v>1.641490056307038</v>
+        <v>1.220385076143974</v>
       </c>
       <c r="E16" t="n">
-        <v>1.517317371253562</v>
+        <v>1.407002837090825</v>
       </c>
       <c r="F16" t="n">
-        <v>1.334649657042612</v>
+        <v>0.9288117863056427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9012247511699635</v>
+        <v>1.45294918500552</v>
       </c>
       <c r="H16" t="n">
-        <v>1.277982844435285</v>
+        <v>1.48663162152884</v>
       </c>
       <c r="I16" t="n">
-        <v>1.14644157734073</v>
+        <v>1.345183223095711</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9170204019892522</v>
+        <v>1.068609717196416</v>
       </c>
       <c r="K16" t="n">
-        <v>1.46684064748343</v>
+        <v>1.143345221094142</v>
       </c>
       <c r="L16" t="n">
-        <v>1.310806686222459</v>
+        <v>1.283035094576097</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3296158325533627</v>
+        <v>0.2813711015771041</v>
       </c>
     </row>
   </sheetData>

--- a/results/porosity.xlsx
+++ b/results/porosity.xlsx
@@ -480,40 +480,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.882839403522188</v>
+        <v>1.743264559704317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9190827061374862</v>
+        <v>0.9389455491605245</v>
       </c>
       <c r="D2" t="n">
-        <v>1.334991439822856</v>
+        <v>1.179657379323362</v>
       </c>
       <c r="E2" t="n">
-        <v>1.365340035014402</v>
+        <v>1.396571494010468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9217052787547499</v>
+        <v>0.9237487112422089</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48041420539845</v>
+        <v>1.450731057140115</v>
       </c>
       <c r="H2" t="n">
-        <v>1.473018325543459</v>
+        <v>1.377531687998644</v>
       </c>
       <c r="I2" t="n">
-        <v>1.284781297187946</v>
+        <v>1.263433014328584</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07775467647256</v>
+        <v>1.042605901807822</v>
       </c>
       <c r="K2" t="n">
-        <v>1.142917624127828</v>
+        <v>1.148681678400587</v>
       </c>
       <c r="L2" t="n">
-        <v>1.288284499198193</v>
+        <v>1.246517103311663</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2922730714527865</v>
+        <v>0.2544777071627199</v>
       </c>
     </row>
     <row r="3">
@@ -521,40 +521,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.796208287626305</v>
+        <v>1.81412428385051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9454597641975123</v>
+        <v>0.926512573019809</v>
       </c>
       <c r="D3" t="n">
-        <v>1.195543829648995</v>
+        <v>1.251380885678693</v>
       </c>
       <c r="E3" t="n">
-        <v>1.404721730351537</v>
+        <v>1.373797042675902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9241843130694558</v>
+        <v>0.9220747444459424</v>
       </c>
       <c r="G3" t="n">
-        <v>1.450211267332762</v>
+        <v>1.4525502955421</v>
       </c>
       <c r="H3" t="n">
-        <v>1.443781836215697</v>
+        <v>1.394439417421777</v>
       </c>
       <c r="I3" t="n">
-        <v>1.333106151385306</v>
+        <v>1.20365174422109</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06667889800985</v>
+        <v>1.044708226106428</v>
       </c>
       <c r="K3" t="n">
-        <v>1.145365789950748</v>
+        <v>1.135358458537131</v>
       </c>
       <c r="L3" t="n">
-        <v>1.270526186778817</v>
+        <v>1.251859767149938</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2685418824771844</v>
+        <v>0.2718319021741971</v>
       </c>
     </row>
     <row r="4">
@@ -562,40 +562,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9563718137563</v>
+        <v>1.844536273867964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9310513972724576</v>
+        <v>0.9126698456461101</v>
       </c>
       <c r="D4" t="n">
-        <v>1.299361041911254</v>
+        <v>1.308988417500875</v>
       </c>
       <c r="E4" t="n">
-        <v>1.398696519131204</v>
+        <v>1.360248867171858</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9261851529174648</v>
+        <v>0.9232747474519563</v>
       </c>
       <c r="G4" t="n">
-        <v>1.450656994056696</v>
+        <v>1.473768437202193</v>
       </c>
       <c r="H4" t="n">
-        <v>1.523917959074275</v>
+        <v>1.4139477350864</v>
       </c>
       <c r="I4" t="n">
-        <v>1.262516539824702</v>
+        <v>1.214705289359623</v>
       </c>
       <c r="J4" t="n">
-        <v>1.074218459878894</v>
+        <v>1.049991019733485</v>
       </c>
       <c r="K4" t="n">
-        <v>1.122247813766683</v>
+        <v>1.142728072353034</v>
       </c>
       <c r="L4" t="n">
-        <v>1.294522369158993</v>
+        <v>1.26448587053735</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3114376826587223</v>
+        <v>0.2823036574071141</v>
       </c>
     </row>
     <row r="5">
@@ -603,40 +603,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.949353740362548</v>
+        <v>1.773903395034745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.91752926596259</v>
+        <v>0.9181656058197168</v>
       </c>
       <c r="D5" t="n">
-        <v>1.343695787030265</v>
+        <v>1.231986063242919</v>
       </c>
       <c r="E5" t="n">
-        <v>1.38083419754523</v>
+        <v>1.386829156534195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9227373410016581</v>
+        <v>0.9253301722796012</v>
       </c>
       <c r="G5" t="n">
-        <v>1.463517566089106</v>
+        <v>1.473766433311123</v>
       </c>
       <c r="H5" t="n">
-        <v>1.523371531127526</v>
+        <v>1.396778313482221</v>
       </c>
       <c r="I5" t="n">
-        <v>1.26386689723497</v>
+        <v>1.271049579752612</v>
       </c>
       <c r="J5" t="n">
-        <v>1.078342802861836</v>
+        <v>1.047734130523781</v>
       </c>
       <c r="K5" t="n">
-        <v>1.127709852808839</v>
+        <v>1.154981931309697</v>
       </c>
       <c r="L5" t="n">
-        <v>1.297095898202457</v>
+        <v>1.258052478129061</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3118733097362531</v>
+        <v>0.2646582525116981</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.751197022494889</v>
+        <v>1.815127215805809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9563624771731493</v>
+        <v>0.9531052286156327</v>
       </c>
       <c r="D6" t="n">
-        <v>1.141963143977859</v>
+        <v>1.168078308847294</v>
       </c>
       <c r="E6" t="n">
-        <v>1.406849839624077</v>
+        <v>1.415757407518091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.925246871632231</v>
+        <v>0.9288738033363408</v>
       </c>
       <c r="G6" t="n">
-        <v>1.441349264932259</v>
+        <v>1.427915107041306</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367412929594221</v>
+        <v>1.395341136951987</v>
       </c>
       <c r="I6" t="n">
-        <v>1.312373019529253</v>
+        <v>1.223930634365282</v>
       </c>
       <c r="J6" t="n">
-        <v>1.060949938820746</v>
+        <v>1.040776182407993</v>
       </c>
       <c r="K6" t="n">
-        <v>1.149164991207392</v>
+        <v>1.133951412470109</v>
       </c>
       <c r="L6" t="n">
-        <v>1.251286949898608</v>
+        <v>1.250285643735984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2537149914601052</v>
+        <v>0.2698811464644176</v>
       </c>
     </row>
     <row r="7">
@@ -685,40 +685,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.811174859470742</v>
+        <v>1.80485644967099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9190827061374862</v>
+        <v>0.9131027971390312</v>
       </c>
       <c r="D7" t="n">
-        <v>1.328731072380511</v>
+        <v>1.326314720888462</v>
       </c>
       <c r="E7" t="n">
-        <v>1.336180339212821</v>
+        <v>1.374594863327379</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9217655086100963</v>
+        <v>0.921942697733255</v>
       </c>
       <c r="G7" t="n">
-        <v>1.485536878961379</v>
+        <v>1.495819077726058</v>
       </c>
       <c r="H7" t="n">
-        <v>1.408147753394009</v>
+        <v>1.468570148689299</v>
       </c>
       <c r="I7" t="n">
-        <v>1.272635538753549</v>
+        <v>1.302654307379729</v>
       </c>
       <c r="J7" t="n">
-        <v>1.073109331422459</v>
+        <v>1.058793376891104</v>
       </c>
       <c r="K7" t="n">
-        <v>1.148171716324043</v>
+        <v>1.160223937000831</v>
       </c>
       <c r="L7" t="n">
-        <v>1.270453570466709</v>
+        <v>1.282687237644614</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2716745429633782</v>
+        <v>0.277937318936243</v>
       </c>
     </row>
     <row r="8">
@@ -726,40 +726,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.936647816636604</v>
+        <v>1.800360543774473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9278225537686575</v>
+        <v>0.9131027971390312</v>
       </c>
       <c r="D8" t="n">
-        <v>1.306736168352644</v>
+        <v>1.323053264465536</v>
       </c>
       <c r="E8" t="n">
-        <v>1.372461639641914</v>
+        <v>1.357265706458891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9227421645489599</v>
+        <v>0.9227890239547416</v>
       </c>
       <c r="G8" t="n">
-        <v>1.44989371652124</v>
+        <v>1.494077165944197</v>
       </c>
       <c r="H8" t="n">
-        <v>1.443004939252565</v>
+        <v>1.421573144609713</v>
       </c>
       <c r="I8" t="n">
-        <v>1.184561353109649</v>
+        <v>1.266269066708</v>
       </c>
       <c r="J8" t="n">
-        <v>1.070966025580727</v>
+        <v>1.054781498723043</v>
       </c>
       <c r="K8" t="n">
-        <v>1.117331731002785</v>
+        <v>1.157623009545409</v>
       </c>
       <c r="L8" t="n">
-        <v>1.273216810841574</v>
+        <v>1.271089522132304</v>
       </c>
       <c r="M8" t="n">
-        <v>0.303012929560061</v>
+        <v>0.2732068750358541</v>
       </c>
     </row>
     <row r="9">
@@ -767,40 +767,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.809439355258344</v>
+        <v>1.82306808667154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9179862758812057</v>
+        <v>0.9131027971390312</v>
       </c>
       <c r="D9" t="n">
-        <v>1.283604160030974</v>
+        <v>1.285570755599835</v>
       </c>
       <c r="E9" t="n">
-        <v>1.357250625602051</v>
+        <v>1.365422694374171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9208326220332276</v>
+        <v>0.9247432975910018</v>
       </c>
       <c r="G9" t="n">
-        <v>1.469980898378957</v>
+        <v>1.475056114028791</v>
       </c>
       <c r="H9" t="n">
-        <v>1.406162382798539</v>
+        <v>1.405337221979712</v>
       </c>
       <c r="I9" t="n">
-        <v>1.273255488026322</v>
+        <v>1.228604229474781</v>
       </c>
       <c r="J9" t="n">
-        <v>1.070519443957653</v>
+        <v>1.04877631082842</v>
       </c>
       <c r="K9" t="n">
-        <v>1.145722371329896</v>
+        <v>1.145605751295512</v>
       </c>
       <c r="L9" t="n">
-        <v>1.265475362329717</v>
+        <v>1.261528725898279</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2704317397582951</v>
+        <v>0.2764022953309456</v>
       </c>
     </row>
     <row r="10">
@@ -808,40 +808,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.827886899524446</v>
+        <v>1.886483558308391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9190827061374862</v>
+        <v>0.9667718357527938</v>
       </c>
       <c r="D10" t="n">
-        <v>1.339314900607175</v>
+        <v>1.18607603664406</v>
       </c>
       <c r="E10" t="n">
-        <v>1.354889423657147</v>
+        <v>1.408241065493325</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9232489465480995</v>
+        <v>0.9284787701678702</v>
       </c>
       <c r="G10" t="n">
-        <v>1.509226546835738</v>
+        <v>1.390932177517101</v>
       </c>
       <c r="H10" t="n">
-        <v>1.443700060691081</v>
+        <v>1.436099605380446</v>
       </c>
       <c r="I10" t="n">
-        <v>1.333388887166342</v>
+        <v>1.169304024833697</v>
       </c>
       <c r="J10" t="n">
-        <v>1.080808641513526</v>
+        <v>1.047125655674824</v>
       </c>
       <c r="K10" t="n">
-        <v>1.162340962063834</v>
+        <v>1.110107567957775</v>
       </c>
       <c r="L10" t="n">
-        <v>1.289388797474488</v>
+        <v>1.252962029773028</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2792194655084207</v>
+        <v>0.2866431890128131</v>
       </c>
     </row>
     <row r="11">
@@ -849,40 +849,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.838642002371881</v>
+        <v>1.908588477637162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9190827061374862</v>
+        <v>0.9299231831680831</v>
       </c>
       <c r="D11" t="n">
-        <v>1.313690183269471</v>
+        <v>1.259554059938238</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370665643945555</v>
+        <v>1.431684088848631</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9248970262687198</v>
+        <v>0.9280874342778357</v>
       </c>
       <c r="G11" t="n">
-        <v>1.487077937838388</v>
+        <v>1.455692986120086</v>
       </c>
       <c r="H11" t="n">
-        <v>1.497109088510797</v>
+        <v>1.521008598418541</v>
       </c>
       <c r="I11" t="n">
-        <v>1.358887374224158</v>
+        <v>1.2645519077794</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07734534192063</v>
+        <v>1.054394837468315</v>
       </c>
       <c r="K11" t="n">
-        <v>1.154834534906279</v>
+        <v>1.133442688523354</v>
       </c>
       <c r="L11" t="n">
-        <v>1.294223183939337</v>
+        <v>1.288692826217965</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2845559406361151</v>
+        <v>0.3029042204976772</v>
       </c>
     </row>
     <row r="12">
@@ -890,40 +890,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.805316383061954</v>
+        <v>1.863114869957446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9224576415865333</v>
+        <v>0.9137025090088539</v>
       </c>
       <c r="D12" t="n">
-        <v>1.245231982660844</v>
+        <v>1.276964703221596</v>
       </c>
       <c r="E12" t="n">
-        <v>1.383562210179679</v>
+        <v>1.400836006690087</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9209620323905179</v>
+        <v>0.9286802497032436</v>
       </c>
       <c r="G12" t="n">
-        <v>1.473031296426959</v>
+        <v>1.467035775771732</v>
       </c>
       <c r="H12" t="n">
-        <v>1.400673812403767</v>
+        <v>1.502895854026966</v>
       </c>
       <c r="I12" t="n">
-        <v>1.291080164570863</v>
+        <v>1.286612024104011</v>
       </c>
       <c r="J12" t="n">
-        <v>1.071749923873021</v>
+        <v>1.052166580611666</v>
       </c>
       <c r="K12" t="n">
-        <v>1.149521690503662</v>
+        <v>1.143975930304365</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26635871376578</v>
+        <v>1.283598450339997</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2697970236981098</v>
+        <v>0.2919708341716037</v>
       </c>
     </row>
     <row r="13">
@@ -931,40 +931,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.767919085504026</v>
+        <v>1.7802786010434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9188808651875565</v>
+        <v>0.9119489868160708</v>
       </c>
       <c r="D13" t="n">
-        <v>1.256136574940624</v>
+        <v>1.272287913326255</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364753043577432</v>
+        <v>1.378281232888554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9208631441434653</v>
+        <v>0.9241038123276106</v>
       </c>
       <c r="G13" t="n">
-        <v>1.488478380546536</v>
+        <v>1.478873644393692</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36730073145194</v>
+        <v>1.446298143811914</v>
       </c>
       <c r="I13" t="n">
-        <v>1.303310410623699</v>
+        <v>1.299741087235087</v>
       </c>
       <c r="J13" t="n">
-        <v>1.071715182540736</v>
+        <v>1.050900121840666</v>
       </c>
       <c r="K13" t="n">
-        <v>1.159409807706196</v>
+        <v>1.157136011828518</v>
       </c>
       <c r="L13" t="n">
-        <v>1.261876722622221</v>
+        <v>1.269984955551177</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2606555714082955</v>
+        <v>0.270040287650689</v>
       </c>
     </row>
     <row r="14">
@@ -972,40 +972,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.768955164302927</v>
+        <v>1.76251487256633</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9175863525896335</v>
+        <v>0.9526503065169387</v>
       </c>
       <c r="D14" t="n">
-        <v>1.282368034833355</v>
+        <v>1.163383397788438</v>
       </c>
       <c r="E14" t="n">
-        <v>1.341525257072822</v>
+        <v>1.394265481769874</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9210517452114579</v>
+        <v>0.9250716469112724</v>
       </c>
       <c r="G14" t="n">
-        <v>1.472970215357383</v>
+        <v>1.432302155035987</v>
       </c>
       <c r="H14" t="n">
-        <v>1.374864230496898</v>
+        <v>1.343780971632265</v>
       </c>
       <c r="I14" t="n">
-        <v>1.26815291933282</v>
+        <v>1.220677688157837</v>
       </c>
       <c r="J14" t="n">
-        <v>1.067733091826732</v>
+        <v>1.038418208543157</v>
       </c>
       <c r="K14" t="n">
-        <v>1.148047873865892</v>
+        <v>1.142089610091991</v>
       </c>
       <c r="L14" t="n">
-        <v>1.256325488488992</v>
+        <v>1.237515433901409</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2595501401993364</v>
+        <v>0.2544543926889639</v>
       </c>
     </row>
     <row r="15">
@@ -1013,40 +1013,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.920027987772877</v>
+        <v>1.942039050108982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9544812937254344</v>
+        <v>0.9168306923133619</v>
       </c>
       <c r="D15" t="n">
-        <v>1.250560008893013</v>
+        <v>1.312221074217502</v>
       </c>
       <c r="E15" t="n">
-        <v>1.397948688738826</v>
+        <v>1.39470911001535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9264482665522951</v>
+        <v>0.9270661994810735</v>
       </c>
       <c r="G15" t="n">
-        <v>1.430172726288173</v>
+        <v>1.457923257943378</v>
       </c>
       <c r="H15" t="n">
-        <v>1.486391660184076</v>
+        <v>1.492639556308139</v>
       </c>
       <c r="I15" t="n">
-        <v>1.247793113087343</v>
+        <v>1.208617987054378</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06978392116496</v>
+        <v>1.052822585166693</v>
       </c>
       <c r="K15" t="n">
-        <v>1.120674032888116</v>
+        <v>1.125527649056246</v>
       </c>
       <c r="L15" t="n">
-        <v>1.280428169929511</v>
+        <v>1.28303971616651</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2964860998659929</v>
+        <v>0.3102495124316617</v>
       </c>
     </row>
     <row r="16">
@@ -1054,40 +1054,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.839130886762736</v>
+        <v>1.764326831626497</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9383013915371671</v>
+        <v>0.9131027971390312</v>
       </c>
       <c r="D16" t="n">
-        <v>1.220385076143974</v>
+        <v>1.261818558193135</v>
       </c>
       <c r="E16" t="n">
-        <v>1.407002837090825</v>
+        <v>1.375765413557506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9288117863056427</v>
+        <v>0.9219847810272302</v>
       </c>
       <c r="G16" t="n">
-        <v>1.45294918500552</v>
+        <v>1.48876921212676</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48663162152884</v>
+        <v>1.374028847610564</v>
       </c>
       <c r="I16" t="n">
-        <v>1.345183223095711</v>
+        <v>1.261614078503001</v>
       </c>
       <c r="J16" t="n">
-        <v>1.068609717196416</v>
+        <v>1.052445385037322</v>
       </c>
       <c r="K16" t="n">
-        <v>1.143345221094142</v>
+        <v>1.159406623943882</v>
       </c>
       <c r="L16" t="n">
-        <v>1.283035094576097</v>
+        <v>1.257326252876493</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2813711015771041</v>
+        <v>0.2626382050684534</v>
       </c>
     </row>
   </sheetData>
